--- a/dashboard_loader/skills_reform_uploader/skills_reform.xlsx
+++ b/dashboard_loader/skills_reform_uploader/skills_reform.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="46">
   <si>
     <t xml:space="preserve">National Partnership Agreement on Skills Reform</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desc Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Commonwealth committed $1.75 billion over five years for a National Partnership Agreement on Skills Reform (NPASR) to reform the vocational education and training system. The NPASR commenced in 2012 and expires in June 2017.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,6 +222,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -280,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,6 +335,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -961,10 +978,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1006,6 +1023,14 @@
         <v>2016</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/dashboard_loader/skills_reform_uploader/skills_reform.xlsx
+++ b/dashboard_loader/skills_reform_uploader/skills_reform.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t xml:space="preserve">National Partnership Agreement on Skills Reform</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t xml:space="preserve">The Commonwealth committed $1.75 billion over five years for a National Partnership Agreement on Skills Reform (NPASR) to reform the vocational education and training system. The NPASR commenced in 2012 and expires in June 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training outcome payments occur in 2015-16 and 2016-17. Cumulative training outcomes, since 2012, are assessed as part of the 2015 and 2016 Annual Performance Assessments.</t>
   </si>
 </sst>
 </file>
@@ -168,11 +174,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="20">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,6 +195,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,12 +285,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -216,21 +298,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,17 +321,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -268,7 +407,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,6 +431,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -302,7 +489,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,46 +497,62 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -361,10 +564,10 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -376,7 +579,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -392,7 +595,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -421,15 +624,15 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,31 +682,31 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -514,31 +717,31 @@
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -549,31 +752,31 @@
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -584,31 +787,31 @@
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -619,31 +822,31 @@
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -654,31 +857,31 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -686,34 +889,34 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -724,31 +927,31 @@
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -759,31 +962,31 @@
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -794,31 +997,31 @@
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -829,31 +1032,31 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -864,31 +1067,31 @@
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -899,31 +1102,31 @@
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -934,31 +1137,31 @@
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -978,63 +1181,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="122.132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="122.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/skills_reform_uploader/skills_reform.xlsx
+++ b/dashboard_loader/skills_reform_uploader/skills_reform.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t xml:space="preserve">National Partnership Agreement on Skills Reform</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve">Training outcome payments occur in 2015-16 and 2016-17. Cumulative training outcomes, since 2012, are assessed as part of the 2015 and 2016 Annual Performance Assessments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State and Territory governments</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1242,6 +1248,14 @@
         <v>47</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
